--- a/VACCINATION_MANAGEMENT/src/SQL/Data/ORGANIZATION.xlsx
+++ b/VACCINATION_MANAGEMENT/src/SQL/Data/ORGANIZATION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Project Submission\IS201.M21_20520418_20521252_20521720_20521890\Huong dan cai dat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Projects\VACCINATION\VACCINATION_MANAGEMENT\src\SQL\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -72,6 +72,57 @@
   </si>
   <si>
     <t>Dầu Tiếng</t>
+  </si>
+  <si>
+    <t>02001</t>
+  </si>
+  <si>
+    <t>02002</t>
+  </si>
+  <si>
+    <t>02003</t>
+  </si>
+  <si>
+    <t>02004</t>
+  </si>
+  <si>
+    <t>02005</t>
+  </si>
+  <si>
+    <t>BV Đa khoa quốc tế Vinmec Central Park</t>
+  </si>
+  <si>
+    <t>BV Chợ Rẫy</t>
+  </si>
+  <si>
+    <t>BV Nhân Dân 115</t>
+  </si>
+  <si>
+    <t>BV Y Dược TPHCM</t>
+  </si>
+  <si>
+    <t>BV Nhi Đồng 1</t>
+  </si>
+  <si>
+    <t>Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Bình Thạnh</t>
+  </si>
+  <si>
+    <t>208 Nguyễn Hữu Cảnh</t>
+  </si>
+  <si>
+    <t>527 Sư Vạn Hạnh</t>
+  </si>
+  <si>
+    <t>215 Hồng Bàng</t>
+  </si>
+  <si>
+    <t>341 Sư Vạn Hạnh</t>
+  </si>
+  <si>
+    <t>201B Nguyễn Chí Thanh</t>
   </si>
 </sst>
 </file>
@@ -107,8 +158,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,13 +442,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -441,7 +497,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>74001</v>
       </c>
       <c r="B3" t="s">
@@ -457,7 +513,108 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>